--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5206BE-2FAA-4E06-96CB-8C0E6906854A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{A2887DC1-356C-4BD2-AB33-4DE80A4D9E7D}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$K$38</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,46 +143,46 @@
     <t>Куропаткин 17</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб</t>
-  </si>
-  <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>Дата оплаты, дней</t>
   </si>
   <si>
     <t>Срок оплаты, дней</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб</t>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -554,18 +553,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF231A8-CE39-4C1C-96E0-8AA7725453B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="5" customWidth="1"/>
@@ -589,31 +588,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -658,1428 +657,1603 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D34" si="0">A$1*1.1</f>
+        <f>D3</f>
         <v>11</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>764.5</v>
       </c>
       <c r="F4" s="8">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="8">
+        <f>G3 + 1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;=G4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(F4&gt;=G4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="7">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K38" si="4">E4 + J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4 + J4</f>
         <v>764.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>11</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>759</v>
       </c>
       <c r="F5" s="8">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="8">
+        <f t="shared" ref="G5:G38" si="8">G4 + 1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="7">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="7">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>753.5</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="8">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>753.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>748</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="8">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="7">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>742.5</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="8">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>742.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="7">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>737</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="8">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>731.5</v>
       </c>
       <c r="F10" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="8">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>731.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>726</v>
       </c>
       <c r="F11" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="8">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="7">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>720.5</v>
       </c>
       <c r="F12" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="8">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>730.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>715</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="8">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>709.5</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="8">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>739.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="F15" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="8">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>698.5</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="8">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>748.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>693</v>
       </c>
       <c r="F17" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="8">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>687.5</v>
       </c>
       <c r="F18" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="8">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>757.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="7">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>682</v>
       </c>
       <c r="F19" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="8">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="7">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>676.5</v>
       </c>
       <c r="F20" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="8">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>766.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="7">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>671</v>
       </c>
       <c r="F21" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="8">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="7">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>665.5</v>
       </c>
       <c r="F22" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="8">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>775.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="7">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="F23" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="8">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="7">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>654.5</v>
       </c>
       <c r="F24" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="8">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>784.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="F25" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="8">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>643.5</v>
       </c>
       <c r="F26" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="8">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>793.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="7">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="F27" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="8">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="7">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>632.5</v>
       </c>
       <c r="F28" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="8">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>802.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="7">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="F29" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="8">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="7">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>621.5</v>
       </c>
       <c r="F30" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="8">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>811.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="7">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>616</v>
       </c>
       <c r="F31" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="8">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="7">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>610.5</v>
       </c>
       <c r="F32" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="8">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>820.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="7">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="F33" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="8">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="7">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>599.5</v>
       </c>
       <c r="F34" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="8">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>829.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="7">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="7">
-        <f>A$1*1.1/2</f>
+        <f>D3/2</f>
         <v>5.5</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
       <c r="F35" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="8">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="7">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="5">A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>5.5</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>294.25</v>
       </c>
       <c r="F36" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="8">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>544.25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="7">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>291.5</v>
       </c>
       <c r="F37" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="8">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>551.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="7">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>288.75</v>
       </c>
       <c r="F38" s="8">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="8">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="7">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>558.75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7">
         <f>ROUND(SUM(K3:K38), 0)</f>
         <v>26864</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1">
+        <v>48</v>
+      </c>
+      <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2088,7 +2262,7 @@
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <f>MAX(K3:K38)</f>
         <v>829.5</v>
       </c>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BC105-1939-4C66-95C9-174E8C510B80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0645FB3-4773-4602-B280-2C6D21E0EDC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -28,24 +28,15 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Срок Оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка, дней.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -160,7 +151,16 @@
     <t>Курапаткин 2</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
@@ -169,16 +169,16 @@
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
-    <t>Максимальный скрок просрочки, дней.</t>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,9 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +537,7 @@
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -571,31 +568,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -610,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -623,7 +620,7 @@
         <f>C3*D3</f>
         <v>770</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <f>DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
@@ -655,25 +652,24 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="C4:D8" si="1">($A$1*1.1)</f>
+        <f t="shared" ref="D4:D8" si="1">($A$1*1.1)</f>
         <v>11</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E38" si="2">C4*D4</f>
         <v>764.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F38" si="3">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
@@ -706,14 +702,13 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A38" si="6">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C38" si="7">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="3">
@@ -724,12 +719,12 @@
         <f t="shared" si="2"/>
         <v>759</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G39" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="3">
@@ -757,14 +752,13 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
@@ -775,12 +769,12 @@
         <f t="shared" si="2"/>
         <v>753.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="3">
@@ -808,14 +802,13 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
@@ -826,12 +819,12 @@
         <f t="shared" si="2"/>
         <v>748</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="3">
@@ -859,14 +852,13 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
@@ -877,12 +869,12 @@
         <f t="shared" si="2"/>
         <v>742.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="3">
@@ -910,14 +902,13 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
@@ -928,12 +919,12 @@
         <f t="shared" si="2"/>
         <v>368.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="3">
@@ -961,30 +952,29 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="C10:D38" si="9">($A$1*0.55)</f>
+        <f t="shared" ref="D10:D38" si="8">($A$1*0.55)</f>
         <v>5.5</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>365.75</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="3">
@@ -1012,30 +1002,29 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>363</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="3">
@@ -1063,30 +1052,29 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
         <v>360.25</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="3">
@@ -1114,30 +1102,29 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>357.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="3">
@@ -1165,30 +1152,29 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>354.75</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="3">
@@ -1216,30 +1202,29 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="3">
@@ -1267,30 +1252,29 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>349.25</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="3">
@@ -1318,30 +1302,29 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>346.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="3">
@@ -1369,30 +1352,29 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>343.75</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="3">
@@ -1420,30 +1402,29 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>341</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="3">
@@ -1471,30 +1452,29 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>338.25</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="3">
@@ -1522,30 +1502,29 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>335.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="3">
@@ -1573,30 +1552,29 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>332.75</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="3">
@@ -1624,30 +1602,29 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="3">
@@ -1675,30 +1652,29 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>327.25</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="3">
@@ -1726,30 +1702,29 @@
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>324.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="3">
@@ -1777,30 +1752,29 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>321.75</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="3">
@@ -1828,30 +1802,29 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="3">
@@ -1879,30 +1852,29 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>316.25</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="3">
@@ -1930,30 +1902,29 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>313.5</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="3">
@@ -1981,30 +1952,29 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>310.75</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="3">
@@ -2032,30 +2002,29 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="3">
@@ -2083,30 +2052,29 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>305.25</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="3">
@@ -2134,30 +2102,29 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="2"/>
         <v>302.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="3">
@@ -2185,30 +2152,29 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>299.75</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="3">
@@ -2236,30 +2202,29 @@
     </row>
     <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="3">
@@ -2287,30 +2252,29 @@
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>294.25</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="3">
@@ -2338,30 +2302,29 @@
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>291.5</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="3">
@@ -2389,30 +2352,29 @@
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="2"/>
         <v>288.75</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="5">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="3">
@@ -2461,11 +2423,11 @@
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <v>50</v>
+      </c>
+      <c r="C40" s="6">
+        <f>SUM($K$3:$K$38)</f>
+        <v>18176.25</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2486,11 +2448,11 @@
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3">
-        <f>MAX(H3:H38)</f>
-        <v>27</v>
+        <f>AVERAGE($C$3:$C$38)</f>
+        <v>61.25</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2511,11 +2473,11 @@
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3">
-        <f>MAX(E3:E38)</f>
-        <v>770</v>
+        <f>MAX($H$3:$H$38)</f>
+        <v>27</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2535,8 +2497,13 @@
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3">
+        <f>MAX($E$3:$E$38)</f>
+        <v>770</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2590,6 +2557,18 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
+    <row r="54" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0645FB3-4773-4602-B280-2C6D21E0EDC5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -163,23 +162,23 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -339,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -516,21 +515,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -540,7 +539,7 @@
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="7">
         <v>10</v>
       </c>
@@ -560,7 +559,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +601,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -650,7 +649,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -700,7 +699,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -750,7 +749,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -800,7 +799,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -850,7 +849,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -900,7 +899,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -950,7 +949,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1000,7 +999,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1050,7 +1049,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1100,7 +1099,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1150,7 +1149,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1200,7 +1199,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1250,7 +1249,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1300,7 +1299,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1350,7 +1349,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1400,7 +1399,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1550,7 +1549,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1600,7 +1599,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1650,7 +1649,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1700,7 +1699,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.75">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1750,7 +1749,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1800,7 +1799,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.75">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1850,7 +1849,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15.75">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1900,7 +1899,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15.75">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1950,7 +1949,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15.75">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2000,7 +1999,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15.75">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2050,7 +2049,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2150,7 +2149,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.75">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2200,7 +2199,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.75">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2250,7 +2249,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2300,7 +2299,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.75">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2350,7 +2349,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.75">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2400,7 +2399,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15.75">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2420,10 +2419,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15.75">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="6">
         <f>SUM($K$3:$K$38)</f>
@@ -2445,10 +2444,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15.75">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE($C$3:$C$38)</f>
@@ -2470,10 +2469,10 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15.75">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3">
         <f>MAX($H$3:$H$38)</f>
@@ -2495,10 +2494,10 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3">
         <f>MAX($E$3:$E$38)</f>
@@ -2520,7 +2519,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15.75">
       <c r="A44" s="7"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2540,7 +2539,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2557,15 +2556,15 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="54" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" ht="15.75">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" ht="15.75">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" ht="15.75">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>
@@ -620,14 +620,14 @@
         <v>770</v>
       </c>
       <c r="F3" s="5">
-        <f>DATE(2022,9,9)</f>
+        <f t="shared" ref="F3:F38" si="0">DATE(2022,9,9)</f>
         <v>44813</v>
       </c>
       <c r="G3" s="5">
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H38" si="0">IF(F3&gt;=G3,0,G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="1">IF(F3&gt;=G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -661,15 +661,15 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D8" si="1">($A$1*1.1)</f>
+        <f t="shared" ref="D4:D8" si="2">($A$1*1.1)</f>
         <v>11</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E38" si="2">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="3">C4*D4</f>
         <v>764.5</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="3">DATE(2022,9,9)</f>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
@@ -677,7 +677,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -711,15 +711,15 @@
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>759</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
@@ -727,7 +727,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
@@ -761,15 +761,15 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>753.5</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
@@ -777,7 +777,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -811,15 +811,15 @@
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>748</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
@@ -827,7 +827,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -861,15 +861,15 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>742.5</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
@@ -877,7 +877,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -915,11 +915,11 @@
         <v>5.5</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>368.5</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
@@ -927,7 +927,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -965,11 +965,11 @@
         <v>5.5</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>365.75</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
@@ -977,7 +977,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="3">
@@ -1015,11 +1015,11 @@
         <v>5.5</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
@@ -1027,7 +1027,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -1065,11 +1065,11 @@
         <v>5.5</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360.25</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
@@ -1077,7 +1077,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -1115,11 +1115,11 @@
         <v>5.5</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>357.5</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
@@ -1127,7 +1127,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
@@ -1165,11 +1165,11 @@
         <v>5.5</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>354.75</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
@@ -1177,7 +1177,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
@@ -1215,11 +1215,11 @@
         <v>5.5</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>352</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
@@ -1227,7 +1227,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
@@ -1265,11 +1265,11 @@
         <v>5.5</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>349.25</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
@@ -1277,7 +1277,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
@@ -1315,11 +1315,11 @@
         <v>5.5</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>346.5</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
@@ -1327,7 +1327,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
@@ -1365,11 +1365,11 @@
         <v>5.5</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>343.75</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
@@ -1377,7 +1377,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
@@ -1415,11 +1415,11 @@
         <v>5.5</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>341</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
@@ -1427,7 +1427,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
@@ -1465,11 +1465,11 @@
         <v>5.5</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>338.25</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
@@ -1477,7 +1477,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
@@ -1515,11 +1515,11 @@
         <v>5.5</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>335.5</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
@@ -1527,7 +1527,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
@@ -1565,11 +1565,11 @@
         <v>5.5</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332.75</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
@@ -1577,7 +1577,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
@@ -1615,11 +1615,11 @@
         <v>5.5</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
@@ -1627,7 +1627,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="3">
@@ -1665,11 +1665,11 @@
         <v>5.5</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>327.25</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
@@ -1677,7 +1677,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
@@ -1715,11 +1715,11 @@
         <v>5.5</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324.5</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
@@ -1727,7 +1727,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
@@ -1765,11 +1765,11 @@
         <v>5.5</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>321.75</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
@@ -1777,7 +1777,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
@@ -1815,11 +1815,11 @@
         <v>5.5</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>319</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
@@ -1827,7 +1827,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
@@ -1865,11 +1865,11 @@
         <v>5.5</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>316.25</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
@@ -1877,7 +1877,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
@@ -1915,11 +1915,11 @@
         <v>5.5</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>313.5</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
@@ -1927,7 +1927,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
@@ -1965,11 +1965,11 @@
         <v>5.5</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>310.75</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
@@ -1977,7 +1977,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
@@ -2015,11 +2015,11 @@
         <v>5.5</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>308</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
@@ -2027,7 +2027,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
@@ -2065,11 +2065,11 @@
         <v>5.5</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>305.25</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
@@ -2077,7 +2077,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
@@ -2115,11 +2115,11 @@
         <v>5.5</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302.5</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
@@ -2127,7 +2127,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
@@ -2165,11 +2165,11 @@
         <v>5.5</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>299.75</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
@@ -2177,7 +2177,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
@@ -2215,11 +2215,11 @@
         <v>5.5</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>297</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
@@ -2227,7 +2227,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
@@ -2265,11 +2265,11 @@
         <v>5.5</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>294.25</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
@@ -2277,7 +2277,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
@@ -2315,11 +2315,11 @@
         <v>5.5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>291.5</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
@@ -2327,7 +2327,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
@@ -2365,11 +2365,11 @@
         <v>5.5</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>288.75</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
@@ -2377,7 +2377,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15"/>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Куропаткин 17</t>
   </si>
   <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -176,7 +170,16 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,31 +591,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,7 +2236,7 @@
     <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38), 1)</f>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,11 +237,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,38 +625,38 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>70</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <f>A1*1.1</f>
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <f>C3*D3</f>
         <v>770</v>
       </c>
-      <c r="F3" s="8">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="9">
         <v>44805</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <f>IF(G3 &gt; F3, G3 - F3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="I3" s="8">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <f>E3 + J3</f>
         <v>770</v>
       </c>
@@ -663,42 +666,42 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f>D3</f>
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>764.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>G3 + 1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H38" si="1">IF(G4 &gt; F4, G4 - F4, 0)</f>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H37" si="1">IF(G4 &gt; F4, G4 - F4, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K38" si="3">E4 + J4</f>
         <v>764.5</v>
       </c>
@@ -708,42 +711,42 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>759</v>
       </c>
-      <c r="F5" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5:G38" si="6">G4 + 1</f>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" ref="G5:G38" si="8">G4 + 1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <f t="shared" si="3"/>
         <v>759</v>
       </c>
@@ -753,42 +756,42 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>753.5</v>
       </c>
-      <c r="F6" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="6"/>
+      <c r="F6" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <f t="shared" si="3"/>
         <v>753.5</v>
       </c>
@@ -798,42 +801,42 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>748</v>
       </c>
-      <c r="F7" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="6"/>
+      <c r="F7" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <f t="shared" si="3"/>
         <v>748</v>
       </c>
@@ -843,42 +846,42 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>742.5</v>
       </c>
-      <c r="F8" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="6"/>
+      <c r="F8" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <f t="shared" si="3"/>
         <v>742.5</v>
       </c>
@@ -888,42 +891,42 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
-      <c r="F9" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="6"/>
+      <c r="F9" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <f t="shared" si="3"/>
         <v>737</v>
       </c>
@@ -933,42 +936,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>731.5</v>
       </c>
-      <c r="F10" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="6"/>
+      <c r="F10" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <f t="shared" si="3"/>
         <v>731.5</v>
       </c>
@@ -978,42 +981,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="F11" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F11" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <f t="shared" si="3"/>
         <v>726</v>
       </c>
@@ -1023,42 +1026,42 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>720.5</v>
       </c>
-      <c r="F12" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="6"/>
+      <c r="F12" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
         <f t="shared" si="3"/>
         <v>730.5</v>
       </c>
@@ -1068,42 +1071,42 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="F13" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="6"/>
+      <c r="F13" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <f t="shared" si="3"/>
         <v>735</v>
       </c>
@@ -1113,42 +1116,42 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>709.5</v>
       </c>
-      <c r="F14" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="6"/>
+      <c r="F14" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <f t="shared" si="3"/>
         <v>739.5</v>
       </c>
@@ -1158,42 +1161,42 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-      <c r="F15" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="6"/>
+      <c r="F15" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="8">
         <f t="shared" si="3"/>
         <v>744</v>
       </c>
@@ -1203,42 +1206,42 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
         <f t="shared" si="0"/>
         <v>698.5</v>
       </c>
-      <c r="F16" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="6"/>
+      <c r="F16" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <f t="shared" si="3"/>
         <v>748.5</v>
       </c>
@@ -1248,42 +1251,42 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F17" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="6"/>
+      <c r="F17" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="8">
         <f t="shared" si="3"/>
         <v>753</v>
       </c>
@@ -1293,42 +1296,42 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" si="0"/>
         <v>687.5</v>
       </c>
-      <c r="F18" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="6"/>
+      <c r="F18" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="8">
         <f t="shared" si="3"/>
         <v>757.5</v>
       </c>
@@ -1338,42 +1341,42 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" si="0"/>
         <v>682</v>
       </c>
-      <c r="F19" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="6"/>
+      <c r="F19" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="8">
         <f t="shared" si="3"/>
         <v>762</v>
       </c>
@@ -1383,42 +1386,42 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="8">
         <f t="shared" si="0"/>
         <v>676.5</v>
       </c>
-      <c r="F20" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="6"/>
+      <c r="F20" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <f t="shared" si="3"/>
         <v>766.5</v>
       </c>
@@ -1428,42 +1431,42 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E21" s="8">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="F21" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="6"/>
+      <c r="F21" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="8">
         <f t="shared" si="3"/>
         <v>771</v>
       </c>
@@ -1473,42 +1476,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E22" s="8">
         <f t="shared" si="0"/>
         <v>665.5</v>
       </c>
-      <c r="F22" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="6"/>
+      <c r="F22" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="9">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="8">
         <f t="shared" si="3"/>
         <v>775.5</v>
       </c>
@@ -1518,42 +1521,42 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E23" s="8">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="F23" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="6"/>
+      <c r="F23" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="I23" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="8">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
@@ -1563,42 +1566,42 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>654.5</v>
       </c>
-      <c r="F24" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="6"/>
+      <c r="F24" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="8">
         <f t="shared" si="3"/>
         <v>784.5</v>
       </c>
@@ -1608,42 +1611,42 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>649</v>
       </c>
-      <c r="F25" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="6"/>
+      <c r="F25" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="I25" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="8">
         <f t="shared" si="3"/>
         <v>789</v>
       </c>
@@ -1653,42 +1656,42 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>643.5</v>
       </c>
-      <c r="F26" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="6"/>
+      <c r="F26" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="I26" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="8">
         <f t="shared" si="3"/>
         <v>793.5</v>
       </c>
@@ -1698,42 +1701,42 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
         <v>638</v>
       </c>
-      <c r="F27" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="6"/>
+      <c r="F27" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="I27" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="8">
         <f t="shared" si="3"/>
         <v>798</v>
       </c>
@@ -1743,42 +1746,42 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E28" s="8">
         <f t="shared" si="0"/>
         <v>632.5</v>
       </c>
-      <c r="F28" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="6"/>
+      <c r="F28" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="8">
         <f t="shared" si="3"/>
         <v>802.5</v>
       </c>
@@ -1788,42 +1791,42 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
-      <c r="F29" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="6"/>
+      <c r="F29" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I29" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="8">
         <f t="shared" si="3"/>
         <v>807</v>
       </c>
@@ -1833,42 +1836,42 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>621.5</v>
       </c>
-      <c r="F30" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="6"/>
+      <c r="F30" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="I30" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="8">
         <f t="shared" si="3"/>
         <v>811.5</v>
       </c>
@@ -1878,42 +1881,42 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="F31" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="6"/>
+      <c r="F31" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="I31" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <f t="shared" si="3"/>
         <v>816</v>
       </c>
@@ -1923,42 +1926,42 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="D32" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E32" s="8">
         <f t="shared" si="0"/>
         <v>610.5</v>
       </c>
-      <c r="F32" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="6"/>
+      <c r="F32" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="8">
         <f t="shared" si="3"/>
         <v>820.5</v>
       </c>
@@ -1968,42 +1971,42 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="D33" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E33" s="8">
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="F33" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="6"/>
+      <c r="F33" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="I33" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="8">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="8">
         <f t="shared" si="3"/>
         <v>825</v>
       </c>
@@ -2013,42 +2016,42 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="7">
-        <f>D3</f>
-        <v>11</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="D34" s="8">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="E34" s="8">
         <f t="shared" si="0"/>
         <v>599.5</v>
       </c>
-      <c r="F34" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="6"/>
+      <c r="F34" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <f t="shared" si="3"/>
         <v>829.5</v>
       </c>
@@ -2058,42 +2061,42 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <f>D3/2</f>
         <v>5.5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="F35" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="6"/>
+      <c r="F35" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="I35" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="8">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="8">
         <f t="shared" si="3"/>
         <v>537</v>
       </c>
@@ -2103,42 +2106,42 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <f>D3/2</f>
         <v>5.5</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <f t="shared" si="0"/>
         <v>294.25</v>
       </c>
-      <c r="F36" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="8">
-        <f t="shared" si="6"/>
+      <c r="F36" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="I36" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="8">
         <f t="shared" si="3"/>
         <v>544.25</v>
       </c>
@@ -2148,42 +2151,42 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <f>D3/2</f>
         <v>5.5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f t="shared" si="0"/>
         <v>291.5</v>
       </c>
-      <c r="F37" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="8">
-        <f t="shared" si="6"/>
+      <c r="F37" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="I37" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="8">
         <f t="shared" si="3"/>
         <v>551.5</v>
       </c>
@@ -2193,42 +2196,42 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <f>D3/2</f>
         <v>5.5</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <f t="shared" si="0"/>
         <v>288.75</v>
       </c>
-      <c r="F38" s="8">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="6"/>
+      <c r="F38" s="9">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="9">
-        <f t="shared" si="1"/>
+      <c r="H38" s="10">
+        <f t="shared" ref="H4:H38" si="10">IF(G38 &gt; F38, G38 - F38, 0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="7">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="I38" s="8">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="8">
         <f t="shared" si="3"/>
         <v>558.75</v>
       </c>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0604F6C2-F2F3-472B-989A-417693B3A1C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$3:$B$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -180,12 +181,15 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -559,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E39" si="0">C4*D4</f>
         <v>764.5</v>
       </c>
       <c r="F4" s="9">
@@ -690,7 +694,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H37" si="1">IF(G4 &gt; F4, G4 - F4, 0)</f>
+        <f>IF(G4 &gt; F4, G4 - F4, 0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="8">
@@ -698,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f>I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K38" si="3">E4 + J4</f>
+        <f>E4 + J4</f>
         <v>764.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A39" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C39" si="2">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" ref="D5:D35" si="3">D4</f>
         <v>11</v>
       </c>
       <c r="E5" s="8">
@@ -727,44 +731,44 @@
         <v>759</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <f t="shared" ref="F5:F39" si="4">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ref="G5:G38" si="8">G4 + 1</f>
+        <f t="shared" ref="G5:G39" si="5">G4 + 1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H5:H39" si="6">IF(G5 &gt; F5, G5 - F5, 0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <f t="shared" ref="I5:I39" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J5:J39" si="8">I5*H5</f>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K5:K39" si="9">E5 + J5</f>
         <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E6" s="8">
@@ -772,44 +776,44 @@
         <v>753.5</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44808</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>753.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E7" s="8">
@@ -817,44 +821,44 @@
         <v>748</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44809</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E8" s="8">
@@ -862,44 +866,44 @@
         <v>742.5</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44810</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>742.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E9" s="8">
@@ -907,44 +911,44 @@
         <v>737</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44811</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E10" s="8">
@@ -952,44 +956,44 @@
         <v>731.5</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44812</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>731.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E11" s="8">
@@ -997,44 +1001,44 @@
         <v>726</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E12" s="8">
@@ -1042,44 +1046,44 @@
         <v>720.5</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44814</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>730.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E13" s="8">
@@ -1087,44 +1091,44 @@
         <v>715</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E14" s="8">
@@ -1132,44 +1136,44 @@
         <v>709.5</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44816</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>739.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E15" s="8">
@@ -1177,44 +1181,44 @@
         <v>704</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44817</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E16" s="8">
@@ -1222,44 +1226,44 @@
         <v>698.5</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44818</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>748.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E17" s="8">
@@ -1267,44 +1271,44 @@
         <v>693</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44819</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E18" s="8">
@@ -1312,44 +1316,44 @@
         <v>687.5</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44820</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>757.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E19" s="8">
@@ -1357,44 +1361,44 @@
         <v>682</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44821</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>762</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E20" s="8">
@@ -1402,44 +1406,44 @@
         <v>676.5</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44822</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>766.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E21" s="8">
@@ -1447,44 +1451,44 @@
         <v>671</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44823</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E22" s="8">
@@ -1492,44 +1496,44 @@
         <v>665.5</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44824</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>775.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E23" s="8">
@@ -1537,44 +1541,44 @@
         <v>660</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44825</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E24" s="8">
@@ -1582,44 +1586,44 @@
         <v>654.5</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44826</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>784.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E25" s="8">
@@ -1627,44 +1631,44 @@
         <v>649</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44827</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E26" s="8">
@@ -1672,44 +1676,44 @@
         <v>643.5</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44828</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>793.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E27" s="8">
@@ -1717,44 +1721,44 @@
         <v>638</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E28" s="8">
@@ -1762,44 +1766,44 @@
         <v>632.5</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44830</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>802.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E29" s="8">
@@ -1807,44 +1811,44 @@
         <v>627</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44831</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E30" s="8">
@@ -1852,44 +1856,44 @@
         <v>621.5</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44832</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>811.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E31" s="8">
@@ -1897,44 +1901,44 @@
         <v>616</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44833</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E32" s="8">
@@ -1942,44 +1946,44 @@
         <v>610.5</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44834</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>820.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E33" s="8">
@@ -1987,44 +1991,44 @@
         <v>605</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44835</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E34" s="8">
@@ -2032,85 +2036,85 @@
         <v>599.5</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>829.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D35" s="8">
-        <f>D3/2</f>
-        <v>5.5</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>594</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44837</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="3"/>
-        <v>537</v>
+        <f t="shared" si="9"/>
+        <v>834</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="8">
@@ -2122,44 +2126,44 @@
         <v>294.25</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44838</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>544.25</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D37" s="8">
-        <f>D3/2</f>
+        <f t="shared" ref="D37:D39" si="10">D4/2</f>
         <v>5.5</v>
       </c>
       <c r="E37" s="8">
@@ -2167,110 +2171,155 @@
         <v>291.5</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>44839</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>551.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>288.75</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="5"/>
+        <v>44840</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="9"/>
+        <v>558.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C38" s="8">
-        <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38" s="8">
-        <f>D3/2</f>
+      <c r="B39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="10"/>
         <v>5.5</v>
       </c>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
-        <v>288.75</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="8"/>
-        <v>44840</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" ref="H4:H38" si="10">IF(G38 &gt; F38, G38 - F38, 0)</f>
-        <v>27</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" si="3"/>
-        <v>558.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="4"/>
+        <v>44813</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="5"/>
+        <v>44841</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="9"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="7">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
-        <v>26863</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="7">
+        <f>FLOOR(SUM(K3:K39), 1)</f>
+        <v>27726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="7">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="7">
+        <f>AVERAGE(C3:C39)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="7">
-        <f>MAX(H3:H38)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="7">
+        <f>MAX(H3:H39)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="7">
-        <f>MAX(K3:K38)</f>
-        <v>829.5</v>
+      <c r="C44" s="7">
+        <f>MAX(K3:K39)</f>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14070" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="14070" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,9 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Балашов</t>
-  </si>
-  <si>
     <t>Беккер</t>
   </si>
   <si>
-    <t>Вохмянин</t>
-  </si>
-  <si>
     <t>Дубков</t>
   </si>
   <si>
@@ -71,15 +65,9 @@
     <t>Маслов</t>
   </si>
   <si>
-    <t>Махмутов</t>
-  </si>
-  <si>
     <t>Мунирова</t>
   </si>
   <si>
-    <t>Салех</t>
-  </si>
-  <si>
     <t>Фугина</t>
   </si>
   <si>
@@ -89,104 +77,116 @@
     <t>Шамилов</t>
   </si>
   <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Куропаткин 6</t>
+  </si>
+  <si>
+    <t>Куропаткин 7</t>
+  </si>
+  <si>
+    <t>Куропаткин 8</t>
+  </si>
+  <si>
+    <t>Куропаткин 9</t>
+  </si>
+  <si>
+    <t>Куропаткин 10</t>
+  </si>
+  <si>
+    <t>Куропаткин 11</t>
+  </si>
+  <si>
+    <t>Куропаткин 12</t>
+  </si>
+  <si>
+    <t>Куропаткин 13</t>
+  </si>
+  <si>
+    <t>Куропаткин 14</t>
+  </si>
+  <si>
+    <t>Куропаткин 15</t>
+  </si>
+  <si>
+    <t>Куропаткин 16</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
     <t>Дабеев</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
-  </si>
-  <si>
-    <t>Куропаткин 5</t>
-  </si>
-  <si>
-    <t>Куропаткин 6</t>
-  </si>
-  <si>
-    <t>Куропаткин 7</t>
-  </si>
-  <si>
-    <t>Куропаткин 8</t>
-  </si>
-  <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
-    <t>Куропаткин 13</t>
-  </si>
-  <si>
-    <t>Куропаткин 14</t>
-  </si>
-  <si>
-    <t>Куропаткин 15</t>
-  </si>
-  <si>
-    <t>Куропаткин 16</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб.</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Алимжанов</t>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Карим</t>
+  </si>
+  <si>
+    <t>Динар</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,13 +197,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -229,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -245,7 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,31 +600,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -644,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -689,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -738,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -787,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="5"/>
@@ -836,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="5"/>
@@ -885,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="5"/>
@@ -934,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="5"/>
@@ -983,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="5"/>
@@ -1032,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="5"/>
@@ -1081,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="5"/>
@@ -1130,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="5"/>
@@ -1179,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="5"/>
@@ -1228,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="5"/>
@@ -1277,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="5"/>
@@ -1326,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="5"/>
@@ -1375,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="5"/>
@@ -1424,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="5"/>
@@ -1473,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="5"/>
@@ -1522,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="5"/>
@@ -1571,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="5"/>
@@ -1619,8 +1611,8 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>21</v>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="5"/>
@@ -1668,8 +1660,8 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>22</v>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="5"/>
@@ -1717,8 +1709,8 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>23</v>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="5"/>
@@ -1766,8 +1758,8 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>24</v>
+      <c r="B26" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="5"/>
@@ -1815,8 +1807,8 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>25</v>
+      <c r="B27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="5"/>
@@ -1864,8 +1856,8 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>26</v>
+      <c r="B28" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="5"/>
@@ -1913,8 +1905,8 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>27</v>
+      <c r="B29" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="5"/>
@@ -1962,8 +1954,8 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="5"/>
@@ -2011,8 +2003,8 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>29</v>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="5"/>
@@ -2060,8 +2052,8 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>30</v>
+      <c r="B32" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="5"/>
@@ -2109,8 +2101,8 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>31</v>
+      <c r="B33" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="5"/>
@@ -2158,8 +2150,8 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>32</v>
+      <c r="B34" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="5"/>
@@ -2207,8 +2199,8 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>33</v>
+      <c r="B35" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="5"/>
@@ -2256,8 +2248,8 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>34</v>
+      <c r="B36" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="5"/>
@@ -2305,8 +2297,8 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>35</v>
+      <c r="B37" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="5"/>
@@ -2354,8 +2346,8 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>36</v>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="5"/>
@@ -2418,7 +2410,7 @@
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2440,7 +2432,7 @@
     <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2462,7 +2454,7 @@
     <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2484,7 +2476,7 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="14070" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
+    <t>Балашов</t>
+  </si>
+  <si>
     <t>Беккер</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>Шамилов</t>
   </si>
   <si>
+    <t>Дабеев</t>
+  </si>
+  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -167,19 +173,13 @@
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Дабеев</t>
-  </si>
-  <si>
-    <t>Ярослав</t>
-  </si>
-  <si>
-    <t>Карим</t>
-  </si>
-  <si>
-    <t>Динар</t>
+    <t>Салеx</t>
+  </si>
+  <si>
+    <t>Воxмянин</t>
+  </si>
+  <si>
+    <t>Маxмутов</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,31 +600,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -779,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="5"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="5"/>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="5"/>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="5"/>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="5"/>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="5"/>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="5"/>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="5"/>
@@ -1220,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="5"/>
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="5"/>
@@ -1318,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="5"/>
@@ -1367,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="5"/>
@@ -1416,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="5"/>
@@ -1465,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="5"/>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="5"/>
@@ -1563,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="5"/>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="5"/>
@@ -1710,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="5"/>
@@ -1759,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="5"/>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="5"/>
@@ -1857,7 +1857,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="5"/>
@@ -1906,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="5"/>
@@ -1955,7 +1955,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="5"/>
@@ -2004,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="5"/>
@@ -2053,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="5"/>
@@ -2102,7 +2102,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="5"/>
@@ -2151,7 +2151,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="5"/>
@@ -2200,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="5"/>
@@ -2249,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="5"/>
@@ -2298,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="5"/>
@@ -2347,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="5"/>
@@ -2410,7 +2410,7 @@
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2432,7 +2432,7 @@
     <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2454,7 +2454,7 @@
     <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2476,7 +2476,7 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -173,13 +173,13 @@
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Салеx</t>
-  </si>
-  <si>
-    <t>Воxмянин</t>
-  </si>
-  <si>
-    <t>Маxмутов</t>
+    <t>Вохмянин</t>
+  </si>
+  <si>
+    <t>Махмутов</t>
+  </si>
+  <si>
+    <t>Салех</t>
   </si>
 </sst>
 </file>
@@ -236,8 +236,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
@@ -649,10 +649,10 @@
         <f>C3*D3</f>
         <v>770</v>
       </c>
-      <c r="F3" s="8">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
       <c r="H3" s="4">
@@ -680,7 +680,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4">
@@ -695,11 +695,11 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>764.5</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -729,7 +729,7 @@
         <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4">
@@ -744,11 +744,11 @@
         <f t="shared" si="0"/>
         <v>759</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
@@ -778,8 +778,8 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>49</v>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="5"/>
@@ -793,11 +793,11 @@
         <f t="shared" si="0"/>
         <v>753.5</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
@@ -827,7 +827,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4">
@@ -842,11 +842,11 @@
         <f t="shared" si="0"/>
         <v>748</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
@@ -876,7 +876,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4">
@@ -891,11 +891,11 @@
         <f t="shared" si="0"/>
         <v>742.5</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
@@ -925,7 +925,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4">
@@ -940,11 +940,11 @@
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
@@ -974,7 +974,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4">
@@ -989,11 +989,11 @@
         <f t="shared" si="0"/>
         <v>731.5</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
@@ -1023,7 +1023,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4">
@@ -1038,11 +1038,11 @@
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
@@ -1072,7 +1072,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4">
@@ -1087,11 +1087,11 @@
         <f t="shared" si="0"/>
         <v>720.5</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
@@ -1121,8 +1121,8 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
+      <c r="B13" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="5"/>
@@ -1136,11 +1136,11 @@
         <f t="shared" si="0"/>
         <v>715</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
@@ -1170,7 +1170,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
@@ -1185,11 +1185,11 @@
         <f t="shared" si="0"/>
         <v>709.5</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
@@ -1219,7 +1219,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="4">
@@ -1234,11 +1234,11 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
@@ -1268,7 +1268,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4">
@@ -1283,11 +1283,11 @@
         <f t="shared" si="0"/>
         <v>698.5</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
@@ -1317,7 +1317,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="4">
@@ -1332,11 +1332,11 @@
         <f t="shared" si="0"/>
         <v>693</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
@@ -1366,8 +1366,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>48</v>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="5"/>
@@ -1381,11 +1381,11 @@
         <f t="shared" si="0"/>
         <v>687.5</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
@@ -1415,7 +1415,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="4">
@@ -1430,11 +1430,11 @@
         <f t="shared" si="0"/>
         <v>682</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
@@ -1464,7 +1464,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4">
@@ -1479,11 +1479,11 @@
         <f t="shared" si="0"/>
         <v>676.5</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
@@ -1513,7 +1513,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="4">
@@ -1528,11 +1528,11 @@
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
@@ -1562,7 +1562,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4">
@@ -1577,11 +1577,11 @@
         <f t="shared" si="0"/>
         <v>665.5</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
@@ -1611,7 +1611,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="4">
@@ -1626,11 +1626,11 @@
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
@@ -1660,7 +1660,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="4">
@@ -1675,11 +1675,11 @@
         <f t="shared" si="0"/>
         <v>654.5</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
@@ -1709,7 +1709,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4">
@@ -1724,11 +1724,11 @@
         <f t="shared" si="0"/>
         <v>649</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
@@ -1758,7 +1758,7 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="4">
@@ -1773,11 +1773,11 @@
         <f t="shared" si="0"/>
         <v>643.5</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
@@ -1807,7 +1807,7 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="4">
@@ -1822,11 +1822,11 @@
         <f t="shared" si="0"/>
         <v>638</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
@@ -1856,7 +1856,7 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="4">
@@ -1871,11 +1871,11 @@
         <f t="shared" si="0"/>
         <v>632.5</v>
       </c>
-      <c r="F28" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
@@ -1905,7 +1905,7 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="4">
@@ -1920,11 +1920,11 @@
         <f t="shared" si="0"/>
         <v>627</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
@@ -1954,7 +1954,7 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="4">
@@ -1969,11 +1969,11 @@
         <f t="shared" si="0"/>
         <v>621.5</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
@@ -2003,7 +2003,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="4">
@@ -2018,11 +2018,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
@@ -2052,7 +2052,7 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="4">
@@ -2067,11 +2067,11 @@
         <f t="shared" si="0"/>
         <v>610.5</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
@@ -2101,7 +2101,7 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="4">
@@ -2116,11 +2116,11 @@
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
@@ -2150,7 +2150,7 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="4">
@@ -2165,11 +2165,11 @@
         <f t="shared" si="0"/>
         <v>599.5</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
@@ -2199,7 +2199,7 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="4">
@@ -2214,11 +2214,11 @@
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F35" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
@@ -2248,7 +2248,7 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="4">
@@ -2263,11 +2263,11 @@
         <f t="shared" si="0"/>
         <v>294.25</v>
       </c>
-      <c r="F36" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
@@ -2297,7 +2297,7 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="4">
@@ -2312,11 +2312,11 @@
         <f t="shared" si="0"/>
         <v>291.5</v>
       </c>
-      <c r="F37" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
@@ -2346,7 +2346,7 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="4">
@@ -2361,11 +2361,11 @@
         <f t="shared" si="0"/>
         <v>288.75</v>
       </c>
-      <c r="F38" s="8">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Балашов</t>
-  </si>
-  <si>
     <t>Беккер</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Салех</t>
+  </si>
+  <si>
+    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,31 +600,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -779,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="5"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="5"/>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="5"/>
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="5"/>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="5"/>
@@ -1024,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="5"/>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="5"/>
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="5"/>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="5"/>
@@ -1220,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="5"/>
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="5"/>
@@ -1318,7 +1318,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="5"/>
@@ -1367,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="5"/>
@@ -1416,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="5"/>
@@ -1465,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="5"/>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="5"/>
@@ -1563,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="5"/>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="5"/>
@@ -1710,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="5"/>
@@ -1759,7 +1759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="5"/>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="5"/>
@@ -1857,7 +1857,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="5"/>
@@ -1906,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="5"/>
@@ -1955,7 +1955,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="5"/>
@@ -2004,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="5"/>
@@ -2053,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="5"/>
@@ -2102,7 +2102,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="5"/>
@@ -2151,7 +2151,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="5"/>
@@ -2200,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="5"/>
@@ -2249,7 +2249,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="5"/>
@@ -2298,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="5"/>
@@ -2347,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="5"/>
@@ -2410,7 +2410,7 @@
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2432,7 +2432,7 @@
     <row r="41" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2454,7 +2454,7 @@
     <row r="42" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2476,7 +2476,7 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_10.xlsx
+++ b/LR3/table_1_10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -179,7 +179,7 @@
     <t>Салех</t>
   </si>
   <si>
-    <t>Максим</t>
+    <t>Балашов</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
